--- a/biology/Botanique/Jardins_sans_limites/Jardins_sans_limites.xlsx
+++ b/biology/Botanique/Jardins_sans_limites/Jardins_sans_limites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réseau Jardins sans Limites est un réseau transfrontalier de jardins à visiter d’avril à octobre. Le réseau s’étend en Moselle, en Sarre et au Luxembourg et compte une vingtaine de jardins thématiques, créations ou recréations.
 Pour appartenir au réseau, les jardins doivent remplir un certain nombre de critères énoncés par sa charte de qualité : 
@@ -517,7 +529,9 @@
           <t>Patrimoine horticole</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré un patrimoine naturel important, le secteur géographique choisi pour l’implantation du réseau n'était pas, jusqu'à ces dernières années, connu pour ses jardins. C'est à la fin du XIXe siècle et au début du XXe siècle, dans la mouvance de l'École de Nancy que la Lorraine fut un creuset important d'horticulteurs de renom, tels Victor Lemoine, François Félix Crousse, Simon-Louis Frères.
 Désormais reconnues internationalement, les pépinières d’antan ont été décimées par les guerres successives de la région. 
@@ -550,7 +564,9 @@
           <t>Histoire du projet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jardins sans Limites est un projet transfrontalier né dans les années 1980 d’une politique de coopération entre la Sarre et la Moselle. Cette coopération concerne plusieurs domaines : la création de sentiers de randonnée transfrontaliers, la création d'une Eurozone pour l'implantation d'entreprises, l'apprentissage des langues dès le plus jeune âge, etc.
 Le dossier Jardins sans Limites constitue l'un des aboutissements de cette politique.
@@ -586,7 +602,9 @@
           <t>Originalité de la démarche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La démarche est originale à plus d'un titre et dès sa conception. En effet, les réseaux de jardins sont généralement constitués à partir de jardins déjà existants. Concernant le réseau Jardins sans Limites, les jardins sont tous des créations ou des recréations imaginées par des architectes-paysagistes de talent. Parmi eux, Louis Benech, Philippe Niez ou encore Franck Neau sont connus en France comme à l'étranger. Par ailleurs, chaque jardin évoque un thème précis : jardin baroque, jardin gallo-romain, jardin pour la paix, jardin des sens, etc. Pour finir, l'appartenance au réseau dès leur conception inscrit les jardins dans une logique de complémentarité.
 </t>
@@ -617,7 +635,9 @@
           <t>Prédominance de la dimension transfrontalière</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet Jardins sans Limites constitue l'une des principales concrétisations de la politique de coopération franco-allemande mise en œuvre par la Moselle et la Sarre. En plus du niveau de qualité de ses jardins, le réseau se distingue par sa dimension transfrontalière impliquant beaucoup de partenaires. 
 L'initiative Jardins sans Limites a été financée conjointement par l'Union Européenne (programmes Interreg II et III relatifs à la Sarre et la Moselle, Objectif 2 Lorraine) ainsi que par le Ministère de l'économie de la Sarre. Ce réseau de jardins est développé, depuis, par le département de la Moselle et ses partenaires sarrois : Christliche ErwachsenenBildung Fortbildungswerk (CEB) et Gesellschaft für Wirtschaftsförderung im Landkreis Merzig-Wadern.
@@ -652,16 +672,55 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>France (Moselle)
-le jardin pour la Paix à Bitche ;
+          <t>France (Moselle)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>le jardin pour la Paix à Bitche ;
 les jardins fruitiers de Laquenexy ;
 le jardin des Prairiales au château de La Grange à Manom ;
 le jardin botanique à Montigny-lès-Metz ;
 le jardin du château de Pange (réalisé par Louis Benech) ;
 le jardin des Faïenciers à Sarreguemines ;
-le jardin des Plantes de chez nous à Scy-Chazelles.
-Allemagne (Sarre)
-le Jardin de la Sarre à Beckingen
+le jardin des Plantes de chez nous à Scy-Chazelles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardins_sans_limites</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_sans_limites</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jardins membres du réseau</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Allemagne (Sarre)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>le Jardin de la Sarre à Beckingen
 le Parc des Citoyens à Besseringen
 le Jardin de la Villa Romaine à Borg[Lequel ?]
 le Jardin du Château à Dagstuhl
@@ -674,37 +733,73 @@
 le Jardin des Arts à Merzig
 le Jardin Renaissance à Nennig
 le Jardin Baroque à Perl
-le Jardin de Vivaces à Weiskirchen
-Au Luxembourg
-le Jardin des Plantes Médicinales et le Jardin Baroque à Schengen</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+le Jardin de Vivaces à Weiskirchen</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jardins_sans_limites</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jardins_sans_limites</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Jardins membres du réseau</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au Luxembourg</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>le Jardin des Plantes Médicinales et le Jardin Baroque à Schengen</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jardins_sans_limites</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardins_sans_limites</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>CDT Moselle, « Dossier de presse Jardins sans Limites », sur www.moselle-tourisme.com, CDT Moselle, 2011 (consulté le 6 juin 2011)
 CDT Moselle, « Jardins sans Limites 2011 », sur www.moselle-tourisme.com, CDT Moselle, 2011 (consulté le 6 juin 2011)</t>
